--- a/DM_T-1/example.xlsx
+++ b/DM_T-1/example.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -418,9 +418,89 @@
         <v>DMNextIN</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>6314</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Bhaiya</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>145</v>
+      </c>
+      <c r="B4" t="str">
+        <v>SIS</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3456</v>
+      </c>
+      <c r="B5" t="str">
+        <v>vinag</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>450</v>
+      </c>
+      <c r="B6" t="str">
+        <v>vikram</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>8614</v>
+      </c>
+      <c r="B7" t="str">
+        <v>jaiin</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>11858</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Dipanshu</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>945087</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Bai</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>731713</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Vi</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0000</v>
+      </c>
+      <c r="B11" t="str">
+        <v>vuh</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>888</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Dipanshu madd</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B12"/>
   </ignoredErrors>
 </worksheet>
 </file>